--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\DRAMExchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8BEF53-06BD-491C-B977-44B1421E66C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F76D8B-CB2D-4B1F-83AD-17C26924AB6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -312,7 +312,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -333,23 +333,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -639,13 +639,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1264,6 +1264,314 @@
       </c>
       <c r="Y8" s="11">
         <v>5.1479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>46048</v>
+      </c>
+      <c r="B9" s="12">
+        <v>46048</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11">
+        <v>55</v>
+      </c>
+      <c r="F9" s="11">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11">
+        <v>36.667000000000002</v>
+      </c>
+      <c r="H9" s="11">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K9" s="11">
+        <v>93</v>
+      </c>
+      <c r="L9" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M9" s="11">
+        <v>78.805000000000007</v>
+      </c>
+      <c r="N9" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O9" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P9" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>45</v>
+      </c>
+      <c r="R9" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S9" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T9" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="U9" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="V9" s="11">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="W9" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X9" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>5.1479999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>46049</v>
+      </c>
+      <c r="B10" s="12">
+        <v>46049</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="11">
+        <v>55</v>
+      </c>
+      <c r="F10" s="11">
+        <v>26</v>
+      </c>
+      <c r="G10" s="11">
+        <v>36.667000000000002</v>
+      </c>
+      <c r="H10" s="11">
+        <v>20</v>
+      </c>
+      <c r="I10" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J10" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K10" s="11">
+        <v>92</v>
+      </c>
+      <c r="L10" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M10" s="11">
+        <v>78.75</v>
+      </c>
+      <c r="N10" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O10" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P10" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>45</v>
+      </c>
+      <c r="R10" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S10" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T10" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="U10" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="V10" s="11">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="W10" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X10" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>46049</v>
+      </c>
+      <c r="B11" s="12">
+        <v>46049</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="11">
+        <v>55</v>
+      </c>
+      <c r="F11" s="11">
+        <v>26</v>
+      </c>
+      <c r="G11" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="H11" s="11">
+        <v>20</v>
+      </c>
+      <c r="I11" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K11" s="11">
+        <v>92</v>
+      </c>
+      <c r="L11" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M11" s="11">
+        <v>78.75</v>
+      </c>
+      <c r="N11" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O11" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P11" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>45</v>
+      </c>
+      <c r="R11" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S11" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T11" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="U11" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="V11" s="11">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="W11" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X11" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>46049</v>
+      </c>
+      <c r="B12" s="12">
+        <v>46049</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="11">
+        <v>55</v>
+      </c>
+      <c r="F12" s="11">
+        <v>26</v>
+      </c>
+      <c r="G12" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="H12" s="11">
+        <v>20</v>
+      </c>
+      <c r="I12" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J12" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K12" s="11">
+        <v>92</v>
+      </c>
+      <c r="L12" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M12" s="11">
+        <v>78.75</v>
+      </c>
+      <c r="N12" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O12" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P12" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>45</v>
+      </c>
+      <c r="R12" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S12" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T12" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="U12" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="V12" s="11">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="W12" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X12" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>5.17</v>
       </c>
     </row>
   </sheetData>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F76D8B-CB2D-4B1F-83AD-17C26924AB6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53640C27-0FA7-4545-BA91-E8DE9A1E5713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -639,13 +639,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1572,6 +1572,237 @@
       </c>
       <c r="Y12" s="11">
         <v>5.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>46050</v>
+      </c>
+      <c r="B13" s="12">
+        <v>46050</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="11">
+        <v>55</v>
+      </c>
+      <c r="F13" s="11">
+        <v>26</v>
+      </c>
+      <c r="G13" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="H13" s="11">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K13" s="11">
+        <v>92</v>
+      </c>
+      <c r="L13" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M13" s="11">
+        <v>78.204999999999998</v>
+      </c>
+      <c r="N13" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O13" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P13" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>45</v>
+      </c>
+      <c r="R13" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S13" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T13" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="U13" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="V13" s="11">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="W13" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X13" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>5.2089999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>46050</v>
+      </c>
+      <c r="B14" s="12">
+        <v>46050</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="11">
+        <v>55</v>
+      </c>
+      <c r="F14" s="11">
+        <v>26</v>
+      </c>
+      <c r="G14" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="H14" s="11">
+        <v>20</v>
+      </c>
+      <c r="I14" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J14" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K14" s="11">
+        <v>92</v>
+      </c>
+      <c r="L14" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M14" s="11">
+        <v>78.204999999999998</v>
+      </c>
+      <c r="N14" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O14" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P14" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>45</v>
+      </c>
+      <c r="R14" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S14" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T14" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="U14" s="11">
+        <v>5.32</v>
+      </c>
+      <c r="V14" s="11">
+        <v>6.0289999999999999</v>
+      </c>
+      <c r="W14" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>5.2089999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>46050</v>
+      </c>
+      <c r="B15" s="12">
+        <v>46050</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="11">
+        <v>55</v>
+      </c>
+      <c r="F15" s="11">
+        <v>26</v>
+      </c>
+      <c r="G15" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="H15" s="11">
+        <v>20</v>
+      </c>
+      <c r="I15" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J15" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K15" s="11">
+        <v>92</v>
+      </c>
+      <c r="L15" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M15" s="11">
+        <v>78.204999999999998</v>
+      </c>
+      <c r="N15" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O15" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P15" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>45</v>
+      </c>
+      <c r="R15" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S15" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T15" s="11">
+        <v>7</v>
+      </c>
+      <c r="U15" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="V15" s="11">
+        <v>6.1890000000000001</v>
+      </c>
+      <c r="W15" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X15" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>5.2089999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1826,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53640C27-0FA7-4545-BA91-E8DE9A1E5713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B43750-71C5-4441-AADE-5F39DDE74C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -639,13 +639,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1803,6 +1803,160 @@
       </c>
       <c r="Y15" s="11">
         <v>5.2089999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>46051</v>
+      </c>
+      <c r="B16" s="12">
+        <v>46051</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="11">
+        <v>55</v>
+      </c>
+      <c r="F16" s="11">
+        <v>26</v>
+      </c>
+      <c r="G16" s="11">
+        <v>36.533000000000001</v>
+      </c>
+      <c r="H16" s="11">
+        <v>20</v>
+      </c>
+      <c r="I16" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J16" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K16" s="11">
+        <v>92</v>
+      </c>
+      <c r="L16" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M16" s="11">
+        <v>77.932000000000002</v>
+      </c>
+      <c r="N16" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O16" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P16" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>45</v>
+      </c>
+      <c r="R16" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S16" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T16" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="U16" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V16" s="11">
+        <v>6.3140000000000001</v>
+      </c>
+      <c r="W16" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X16" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>5.3319999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>46051</v>
+      </c>
+      <c r="B17" s="12">
+        <v>46051</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="11">
+        <v>55</v>
+      </c>
+      <c r="F17" s="11">
+        <v>26</v>
+      </c>
+      <c r="G17" s="11">
+        <v>36.533000000000001</v>
+      </c>
+      <c r="H17" s="11">
+        <v>20</v>
+      </c>
+      <c r="I17" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J17" s="11">
+        <v>19.3</v>
+      </c>
+      <c r="K17" s="11">
+        <v>92</v>
+      </c>
+      <c r="L17" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M17" s="11">
+        <v>77.932000000000002</v>
+      </c>
+      <c r="N17" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O17" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P17" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>45</v>
+      </c>
+      <c r="R17" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S17" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T17" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="U17" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V17" s="11">
+        <v>6.3140000000000001</v>
+      </c>
+      <c r="W17" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X17" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>5.3319999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B43750-71C5-4441-AADE-5F39DDE74C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EAF0BE-9E9D-4639-BA0E-05339066721B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -639,13 +639,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1957,6 +1957,251 @@
       </c>
       <c r="Y17" s="11">
         <v>5.3319999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>46051</v>
+      </c>
+      <c r="B18" s="12">
+        <v>46051</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="11">
+        <v>55</v>
+      </c>
+      <c r="F18" s="11">
+        <v>26</v>
+      </c>
+      <c r="G18" s="11">
+        <v>36.533000000000001</v>
+      </c>
+      <c r="H18" s="11">
+        <v>20</v>
+      </c>
+      <c r="I18" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J18" s="11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K18" s="11">
+        <v>92</v>
+      </c>
+      <c r="L18" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M18" s="11">
+        <v>77.932000000000002</v>
+      </c>
+      <c r="N18" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O18" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P18" s="11">
+        <v>12.8</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>45</v>
+      </c>
+      <c r="R18" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S18" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T18" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="U18" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V18" s="11">
+        <v>6.3140000000000001</v>
+      </c>
+      <c r="W18" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="X18" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>5.3319999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>46052</v>
+      </c>
+      <c r="B19" s="12">
+        <v>46052</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="11">
+        <v>55</v>
+      </c>
+      <c r="F19" s="11">
+        <v>26</v>
+      </c>
+      <c r="G19" s="11">
+        <v>36.533000000000001</v>
+      </c>
+      <c r="H19" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="I19" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J19" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K19" s="11">
+        <v>92</v>
+      </c>
+      <c r="L19" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M19" s="11">
+        <v>77.932000000000002</v>
+      </c>
+      <c r="N19" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O19" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P19" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>45</v>
+      </c>
+      <c r="R19" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S19" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T19" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="U19" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V19" s="11">
+        <v>6.4640000000000004</v>
+      </c>
+      <c r="W19" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X19" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>46052</v>
+      </c>
+      <c r="B20" s="12">
+        <v>46052</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="11">
+        <v>55</v>
+      </c>
+      <c r="F20" s="11">
+        <v>26</v>
+      </c>
+      <c r="G20" s="11">
+        <v>36.433</v>
+      </c>
+      <c r="H20" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="I20" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J20" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K20" s="11">
+        <v>92</v>
+      </c>
+      <c r="L20" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M20" s="11">
+        <v>77.704999999999998</v>
+      </c>
+      <c r="N20" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O20" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P20" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="R20" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S20" s="11">
+        <v>30.76</v>
+      </c>
+      <c r="T20" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="U20" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V20" s="11">
+        <v>6.4640000000000004</v>
+      </c>
+      <c r="W20" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X20" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>46052</v>
+      </c>
+      <c r="B21" s="12">
+        <v>46052</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EAF0BE-9E9D-4639-BA0E-05339066721B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870C8AC-721E-4630-A4A3-FA906746216B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -639,13 +639,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2202,6 +2202,300 @@
       </c>
       <c r="D21" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E21" s="11">
+        <v>55</v>
+      </c>
+      <c r="F21" s="11">
+        <v>26</v>
+      </c>
+      <c r="G21" s="11">
+        <v>37.167000000000002</v>
+      </c>
+      <c r="H21" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="I21" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J21" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K21" s="11">
+        <v>92</v>
+      </c>
+      <c r="L21" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M21" s="11">
+        <v>77.704999999999998</v>
+      </c>
+      <c r="N21" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O21" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P21" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="R21" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S21" s="11">
+        <v>30.76</v>
+      </c>
+      <c r="T21" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="U21" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V21" s="11">
+        <v>6.4640000000000004</v>
+      </c>
+      <c r="W21" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X21" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>46055</v>
+      </c>
+      <c r="B22" s="12">
+        <v>46055</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="11">
+        <v>55</v>
+      </c>
+      <c r="F22" s="11">
+        <v>26</v>
+      </c>
+      <c r="G22" s="11">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="H22" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="I22" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J22" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K22" s="11">
+        <v>92</v>
+      </c>
+      <c r="L22" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M22" s="11">
+        <v>77.704999999999998</v>
+      </c>
+      <c r="N22" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="O22" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="P22" s="11">
+        <v>12.9</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="R22" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="S22" s="11">
+        <v>30.7</v>
+      </c>
+      <c r="T22" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="U22" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V22" s="11">
+        <v>6.5709999999999997</v>
+      </c>
+      <c r="W22" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X22" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>46055</v>
+      </c>
+      <c r="B23" s="12">
+        <v>46055</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="11">
+        <v>54.8</v>
+      </c>
+      <c r="F23" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G23" s="11">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="H23" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="I23" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J23" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K23" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L23" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M23" s="11">
+        <v>77.590999999999994</v>
+      </c>
+      <c r="N23" s="11">
+        <v>14</v>
+      </c>
+      <c r="O23" s="11">
+        <v>12</v>
+      </c>
+      <c r="P23" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>45</v>
+      </c>
+      <c r="R23" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S23" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T23" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="U23" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V23" s="11">
+        <v>6.5709999999999997</v>
+      </c>
+      <c r="W23" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X23" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>46055</v>
+      </c>
+      <c r="B24" s="12">
+        <v>46055</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="11">
+        <v>54.8</v>
+      </c>
+      <c r="F24" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G24" s="11">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="H24" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="I24" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J24" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K24" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L24" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M24" s="11">
+        <v>77.590999999999994</v>
+      </c>
+      <c r="N24" s="11">
+        <v>14</v>
+      </c>
+      <c r="O24" s="11">
+        <v>12</v>
+      </c>
+      <c r="P24" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>45</v>
+      </c>
+      <c r="R24" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S24" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T24" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="U24" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="V24" s="11">
+        <v>6.5709999999999997</v>
+      </c>
+      <c r="W24" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X24" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -2222,10 +2516,10 @@
   <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2413,7 +2707,7 @@
         <v>45962</v>
       </c>
       <c r="B3" s="6">
-        <v>45989</v>
+        <v>46022</v>
       </c>
       <c r="C3" s="8">
         <v>0.70833333333333337</v>
@@ -2498,29 +2792,81 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
+      <c r="A4" s="6">
+        <v>45992</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46052</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="10">
+        <v>42.5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>37</v>
+      </c>
+      <c r="G4" s="10">
+        <v>39.5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="I4" s="10">
+        <v>49</v>
+      </c>
+      <c r="J4" s="10">
+        <v>87</v>
+      </c>
+      <c r="K4" s="10">
+        <v>57</v>
+      </c>
+      <c r="L4" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="M4" s="10">
+        <v>46.5</v>
+      </c>
+      <c r="N4" s="10">
+        <v>22.2</v>
+      </c>
+      <c r="O4" s="10">
+        <v>19.8</v>
+      </c>
+      <c r="P4" s="10">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R4" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="S4" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T4" s="10">
+        <v>5</v>
+      </c>
+      <c r="U4" s="10">
+        <v>4</v>
+      </c>
+      <c r="V4" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="W4" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="X4" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>4</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -2558,7 +2904,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:G2"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2567,7 +2913,9 @@
     <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="9" style="11"/>
+    <col min="5" max="7" width="9" style="11"/>
+    <col min="8" max="8" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2723,17 +3071,45 @@
       <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="10">
+        <v>280</v>
+      </c>
+      <c r="F4" s="10">
+        <v>230</v>
+      </c>
+      <c r="G4" s="10">
+        <v>250</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>700</v>
+      </c>
+      <c r="J4" s="10">
+        <v>850</v>
+      </c>
+      <c r="K4" s="10">
+        <v>145</v>
+      </c>
+      <c r="L4" s="10">
+        <v>95</v>
+      </c>
+      <c r="M4" s="10">
+        <v>110</v>
+      </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2768,10 +3144,10 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2919,14 +3295,36 @@
       <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="10">
+        <v>15.5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>8.6820000000000004</v>
+      </c>
+      <c r="H4" s="10">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>8.8650000000000002</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870C8AC-721E-4630-A4A3-FA906746216B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCDB58F-2B45-4B38-8EFD-E0CDD71831B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -639,13 +639,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2496,6 +2496,174 @@
       </c>
       <c r="Y24" s="11">
         <v>5.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>46056</v>
+      </c>
+      <c r="B25" s="12">
+        <v>46056</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="11">
+        <v>54.8</v>
+      </c>
+      <c r="F25" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G25" s="11">
+        <v>38</v>
+      </c>
+      <c r="H25" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="I25" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J25" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K25" s="11">
+        <v>90</v>
+      </c>
+      <c r="L25" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M25" s="11">
+        <v>77.204999999999998</v>
+      </c>
+      <c r="N25" s="11">
+        <v>14</v>
+      </c>
+      <c r="O25" s="11">
+        <v>12</v>
+      </c>
+      <c r="P25" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>45</v>
+      </c>
+      <c r="R25" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S25" s="11">
+        <v>30.8</v>
+      </c>
+      <c r="T25" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="U25" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="V25" s="11">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W25" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X25" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>46056</v>
+      </c>
+      <c r="B26" s="12">
+        <v>46056</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="11">
+        <v>54.8</v>
+      </c>
+      <c r="F26" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G26" s="11">
+        <v>38</v>
+      </c>
+      <c r="H26" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="I26" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J26" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K26" s="11">
+        <v>90</v>
+      </c>
+      <c r="L26" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M26" s="11">
+        <v>77.204999999999998</v>
+      </c>
+      <c r="N26" s="11">
+        <v>14</v>
+      </c>
+      <c r="O26" s="11">
+        <v>12</v>
+      </c>
+      <c r="P26" s="11">
+        <v>13.05</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>45</v>
+      </c>
+      <c r="R26" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S26" s="11">
+        <v>30.88</v>
+      </c>
+      <c r="T26" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="U26" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="V26" s="11">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W26" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X26" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>46056</v>
+      </c>
+      <c r="B27" s="12">
+        <v>46056</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCDB58F-2B45-4B38-8EFD-E0CDD71831B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A006238-972A-4769-9C78-AE37F9BE7E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -639,13 +639,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z26" sqref="Z26"/>
+      <selection pane="bottomRight" activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2663,6 +2663,237 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="11">
+        <v>54.8</v>
+      </c>
+      <c r="F27" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G27" s="11">
+        <v>38</v>
+      </c>
+      <c r="H27" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="I27" s="11">
+        <v>18.5</v>
+      </c>
+      <c r="J27" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="K27" s="11">
+        <v>90</v>
+      </c>
+      <c r="L27" s="11">
+        <v>26.5</v>
+      </c>
+      <c r="M27" s="11">
+        <v>77.204999999999998</v>
+      </c>
+      <c r="N27" s="11">
+        <v>14</v>
+      </c>
+      <c r="O27" s="11">
+        <v>12</v>
+      </c>
+      <c r="P27" s="11">
+        <v>13.05</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>45</v>
+      </c>
+      <c r="R27" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S27" s="11">
+        <v>30.88</v>
+      </c>
+      <c r="T27" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="U27" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="V27" s="11">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W27" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="X27" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>46057</v>
+      </c>
+      <c r="B28" s="12">
+        <v>46057</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="11">
+        <v>52</v>
+      </c>
+      <c r="F28" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G28" s="11">
+        <v>38</v>
+      </c>
+      <c r="H28" s="11">
+        <v>21</v>
+      </c>
+      <c r="I28" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J28" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K28" s="11">
+        <v>90</v>
+      </c>
+      <c r="L28" s="11">
+        <v>26</v>
+      </c>
+      <c r="M28" s="11">
+        <v>77.084000000000003</v>
+      </c>
+      <c r="N28" s="11">
+        <v>14</v>
+      </c>
+      <c r="O28" s="11">
+        <v>12</v>
+      </c>
+      <c r="P28" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>45</v>
+      </c>
+      <c r="R28" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S28" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T28" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U28" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V28" s="11">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W28" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X28" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>5.468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>46057</v>
+      </c>
+      <c r="B29" s="12">
+        <v>46057</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="11">
+        <v>52</v>
+      </c>
+      <c r="F29" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G29" s="11">
+        <v>37.966999999999999</v>
+      </c>
+      <c r="H29" s="11">
+        <v>21</v>
+      </c>
+      <c r="I29" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J29" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K29" s="11">
+        <v>90</v>
+      </c>
+      <c r="L29" s="11">
+        <v>26</v>
+      </c>
+      <c r="M29" s="11">
+        <v>77.084000000000003</v>
+      </c>
+      <c r="N29" s="11">
+        <v>14</v>
+      </c>
+      <c r="O29" s="11">
+        <v>12</v>
+      </c>
+      <c r="P29" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>45</v>
+      </c>
+      <c r="R29" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S29" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T29" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U29" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V29" s="11">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W29" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X29" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>5.468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>46057</v>
+      </c>
+      <c r="B30" s="12">
+        <v>46057</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>53</v>
       </c>
     </row>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A006238-972A-4769-9C78-AE37F9BE7E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD681CB-BF05-4C56-A6B2-39C27019349E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -639,13 +639,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X39" sqref="X39"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2894,6 +2894,237 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="11">
+        <v>52</v>
+      </c>
+      <c r="F30" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G30" s="11">
+        <v>37.966999999999999</v>
+      </c>
+      <c r="H30" s="11">
+        <v>21</v>
+      </c>
+      <c r="I30" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J30" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K30" s="11">
+        <v>90</v>
+      </c>
+      <c r="L30" s="11">
+        <v>26</v>
+      </c>
+      <c r="M30" s="11">
+        <v>77.084000000000003</v>
+      </c>
+      <c r="N30" s="11">
+        <v>14</v>
+      </c>
+      <c r="O30" s="11">
+        <v>12</v>
+      </c>
+      <c r="P30" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>45</v>
+      </c>
+      <c r="R30" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S30" s="11">
+        <v>30.86</v>
+      </c>
+      <c r="T30" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U30" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V30" s="11">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W30" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X30" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>5.468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>46058</v>
+      </c>
+      <c r="B31" s="12">
+        <v>46058</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="11">
+        <v>52</v>
+      </c>
+      <c r="F31" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G31" s="11">
+        <v>37.933</v>
+      </c>
+      <c r="H31" s="11">
+        <v>21</v>
+      </c>
+      <c r="I31" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J31" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K31" s="11">
+        <v>90</v>
+      </c>
+      <c r="L31" s="11">
+        <v>26</v>
+      </c>
+      <c r="M31" s="11">
+        <v>76.948999999999998</v>
+      </c>
+      <c r="N31" s="11">
+        <v>14</v>
+      </c>
+      <c r="O31" s="11">
+        <v>12</v>
+      </c>
+      <c r="P31" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>45</v>
+      </c>
+      <c r="R31" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S31" s="11">
+        <v>30.84</v>
+      </c>
+      <c r="T31" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U31" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V31" s="11">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W31" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X31" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>46058</v>
+      </c>
+      <c r="B32" s="12">
+        <v>46058</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="11">
+        <v>52</v>
+      </c>
+      <c r="F32" s="11">
+        <v>25.8</v>
+      </c>
+      <c r="G32" s="11">
+        <v>37.933</v>
+      </c>
+      <c r="H32" s="11">
+        <v>21</v>
+      </c>
+      <c r="I32" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J32" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K32" s="11">
+        <v>30</v>
+      </c>
+      <c r="L32" s="11">
+        <v>26</v>
+      </c>
+      <c r="M32" s="11">
+        <v>76.948999999999998</v>
+      </c>
+      <c r="N32" s="11">
+        <v>14</v>
+      </c>
+      <c r="O32" s="11">
+        <v>12</v>
+      </c>
+      <c r="P32" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>45</v>
+      </c>
+      <c r="R32" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S32" s="11">
+        <v>30.84</v>
+      </c>
+      <c r="T32" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U32" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V32" s="11">
+        <v>6.6360000000000001</v>
+      </c>
+      <c r="W32" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X32" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>46058</v>
+      </c>
+      <c r="B33" s="12">
+        <v>46058</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>53</v>
       </c>
     </row>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD681CB-BF05-4C56-A6B2-39C27019349E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F70B71-5EFC-7643-8BEE-FD3A8FE4E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="2620" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -240,23 +240,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +269,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -312,7 +312,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -333,23 +333,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -357,8 +357,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,23 +642,23 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
@@ -735,7 +735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="12">
         <v>46044</v>
       </c>
@@ -881,7 +881,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="12">
         <v>46045</v>
       </c>
@@ -958,7 +958,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="12">
         <v>46045</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="12">
         <v>46045</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="12">
         <v>46048</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="12">
         <v>46048</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="12">
         <v>46048</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="12">
         <v>46049</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="12">
         <v>46049</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="12">
         <v>46049</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="12">
         <v>46050</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="12">
         <v>46050</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="12">
         <v>46050</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="12">
         <v>46051</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="12">
         <v>46051</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="12">
         <v>46051</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="12">
         <v>46052</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="12">
         <v>46052</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="12">
         <v>46052</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="12">
         <v>46055</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="12">
         <v>46055</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" s="12">
         <v>46055</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="12">
         <v>46056</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="12">
         <v>46056</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="12">
         <v>46056</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="12">
         <v>46057</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25">
       <c r="A29" s="12">
         <v>46057</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="12">
         <v>46057</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="12">
         <v>46058</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="12">
         <v>46058</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="12">
         <v>46058</v>
       </c>
@@ -3126,6 +3126,69 @@
       </c>
       <c r="D33" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E33" s="11">
+        <v>52</v>
+      </c>
+      <c r="F33" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="G33" s="11">
+        <v>37.933</v>
+      </c>
+      <c r="H33" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I33" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J33" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K33" s="11">
+        <v>90</v>
+      </c>
+      <c r="L33" s="11">
+        <v>26</v>
+      </c>
+      <c r="M33" s="11">
+        <v>76.948999999999998</v>
+      </c>
+      <c r="N33" s="11">
+        <v>14</v>
+      </c>
+      <c r="O33" s="11">
+        <v>12</v>
+      </c>
+      <c r="P33" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>45</v>
+      </c>
+      <c r="R33" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S33" s="11">
+        <v>30.84</v>
+      </c>
+      <c r="T33" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U33" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V33" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W33" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X33" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>5.48</v>
       </c>
     </row>
   </sheetData>
@@ -3152,17 +3215,17 @@
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="5" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3251,7 +3314,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3332,7 +3395,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -3421,7 +3484,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="6">
         <v>45992</v>
       </c>
@@ -3510,7 +3573,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -3537,19 +3600,19 @@
       <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="11"/>
     <col min="8" max="8" width="10.5" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3602,7 +3665,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3647,7 +3710,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -3700,7 +3763,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -3753,7 +3816,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -3780,18 +3843,18 @@
       <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3838,7 +3901,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3877,7 +3940,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -3924,7 +3987,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -3971,7 +4034,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -3995,15 +4058,15 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -4014,7 +4077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -4028,7 +4091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -4037,7 +4100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -4046,7 +4109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -4055,7 +4118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -4064,7 +4127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -4073,7 +4136,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -4082,7 +4145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -4091,49 +4154,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4144,7 +4207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -4153,7 +4216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -4162,7 +4225,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -4173,7 +4236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -4182,7 +4245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4191,42 +4254,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4235,35 +4298,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F70B71-5EFC-7643-8BEE-FD3A8FE4E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C98FA6D-3F0D-406E-86F4-0501BE55AB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="2620" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -240,23 +240,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +269,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -312,7 +312,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -333,23 +333,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -357,8 +357,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,26 +639,26 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
@@ -735,7 +735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>46044</v>
       </c>
@@ -881,7 +881,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>46045</v>
       </c>
@@ -958,7 +958,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>46045</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>46045</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>46048</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>46048</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>46048</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>46049</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>46049</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>46049</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>46050</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>46050</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>46050</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>46051</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>46051</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>46051</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>46052</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>46052</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>46052</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>46055</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>46055</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>46055</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>46056</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>46056</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>46056</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>46057</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>46057</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>46057</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>46058</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>46058</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>19.7</v>
       </c>
       <c r="K32" s="11">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L32" s="11">
         <v>26</v>
@@ -3114,7 +3114,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>46058</v>
       </c>
@@ -3189,6 +3189,174 @@
       </c>
       <c r="Y33" s="11">
         <v>5.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>46059</v>
+      </c>
+      <c r="B34" s="12">
+        <v>46059</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="11">
+        <v>52</v>
+      </c>
+      <c r="F34" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="G34" s="11">
+        <v>37.9</v>
+      </c>
+      <c r="H34" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I34" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J34" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K34" s="11">
+        <v>90</v>
+      </c>
+      <c r="L34" s="11">
+        <v>26</v>
+      </c>
+      <c r="M34" s="11">
+        <v>76.831000000000003</v>
+      </c>
+      <c r="N34" s="11">
+        <v>14</v>
+      </c>
+      <c r="O34" s="11">
+        <v>12</v>
+      </c>
+      <c r="P34" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>45</v>
+      </c>
+      <c r="R34" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S34" s="11">
+        <v>30.78</v>
+      </c>
+      <c r="T34" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U34" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V34" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W34" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X34" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>5.4950000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>46059</v>
+      </c>
+      <c r="B35" s="12">
+        <v>46059</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="11">
+        <v>53</v>
+      </c>
+      <c r="F35" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="G35" s="11">
+        <v>38</v>
+      </c>
+      <c r="H35" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I35" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J35" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K35" s="11">
+        <v>92</v>
+      </c>
+      <c r="L35" s="11">
+        <v>26</v>
+      </c>
+      <c r="M35" s="11">
+        <v>76.965999999999994</v>
+      </c>
+      <c r="N35" s="11">
+        <v>14</v>
+      </c>
+      <c r="O35" s="11">
+        <v>12</v>
+      </c>
+      <c r="P35" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>47</v>
+      </c>
+      <c r="R35" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S35" s="11">
+        <v>30.98</v>
+      </c>
+      <c r="T35" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U35" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V35" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W35" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X35" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>5.4950000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>46059</v>
+      </c>
+      <c r="B36" s="12">
+        <v>46059</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3215,17 +3383,17 @@
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1">
+    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3314,7 +3482,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3395,7 +3563,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -3484,7 +3652,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45992</v>
       </c>
@@ -3573,7 +3741,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -3600,19 +3768,19 @@
       <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="11"/>
     <col min="8" max="8" width="10.5" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3665,7 +3833,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3710,7 +3878,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -3763,7 +3931,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -3816,7 +3984,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -3843,18 +4011,18 @@
       <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3901,7 +4069,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3940,7 +4108,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -3987,7 +4155,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -4034,7 +4202,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -4058,15 +4226,15 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -4077,7 +4245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -4091,7 +4259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -4100,7 +4268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -4109,7 +4277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -4118,7 +4286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -4127,7 +4295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -4136,7 +4304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -4145,7 +4313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -4154,49 +4322,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4207,7 +4375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -4216,7 +4384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -4225,7 +4393,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -4236,7 +4404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -4245,7 +4413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4254,42 +4422,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,35 +4466,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C98FA6D-3F0D-406E-86F4-0501BE55AB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E04E9D5-492B-D04E-A3D8-43CFEBDC6873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="2625" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27980" yWindow="2980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -240,23 +240,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +269,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -312,7 +312,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -333,23 +333,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -357,8 +357,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,23 +642,23 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
@@ -735,7 +735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="12">
         <v>46044</v>
       </c>
@@ -881,7 +881,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="12">
         <v>46045</v>
       </c>
@@ -958,7 +958,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="12">
         <v>46045</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="12">
         <v>46045</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="12">
         <v>46048</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="12">
         <v>46048</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="12">
         <v>46048</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="12">
         <v>46049</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="12">
         <v>46049</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="12">
         <v>46049</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="12">
         <v>46050</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="12">
         <v>46050</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="12">
         <v>46050</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="12">
         <v>46051</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="12">
         <v>46051</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="12">
         <v>46051</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="12">
         <v>46052</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="12">
         <v>46052</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="12">
         <v>46052</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="12">
         <v>46055</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="12">
         <v>46055</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" s="12">
         <v>46055</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="12">
         <v>46056</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="12">
         <v>46056</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="12">
         <v>46056</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="12">
         <v>46057</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25">
       <c r="A29" s="12">
         <v>46057</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="12">
         <v>46057</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="12">
         <v>46058</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="12">
         <v>46058</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="12">
         <v>46058</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="12">
         <v>46059</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="12">
         <v>46059</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="A36" s="12">
         <v>46059</v>
       </c>
@@ -3357,6 +3357,69 @@
       </c>
       <c r="D36" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E36" s="11">
+        <v>53</v>
+      </c>
+      <c r="F36" s="11">
+        <v>25.5</v>
+      </c>
+      <c r="G36" s="11">
+        <v>38</v>
+      </c>
+      <c r="H36" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I36" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J36" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K36" s="11">
+        <v>92</v>
+      </c>
+      <c r="L36" s="11">
+        <v>26</v>
+      </c>
+      <c r="M36" s="11">
+        <v>76.965999999999994</v>
+      </c>
+      <c r="N36" s="11">
+        <v>14</v>
+      </c>
+      <c r="O36" s="11">
+        <v>12</v>
+      </c>
+      <c r="P36" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>47</v>
+      </c>
+      <c r="R36" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="S36" s="11">
+        <v>31</v>
+      </c>
+      <c r="T36" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U36" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V36" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W36" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X36" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>5.4950000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3383,17 +3446,17 @@
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="5" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3482,7 +3545,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3563,7 +3626,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -3652,7 +3715,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="6">
         <v>45992</v>
       </c>
@@ -3741,7 +3804,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -3768,19 +3831,19 @@
       <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="11"/>
     <col min="8" max="8" width="10.5" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3833,7 +3896,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3878,7 +3941,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -3931,7 +3994,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -3984,7 +4047,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -4011,18 +4074,18 @@
       <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -4069,7 +4132,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -4108,7 +4171,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -4155,7 +4218,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -4202,7 +4265,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -4226,15 +4289,15 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -4245,7 +4308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -4259,7 +4322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -4268,7 +4331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -4277,7 +4340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -4286,7 +4349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -4295,7 +4358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -4304,7 +4367,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -4313,7 +4376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -4322,49 +4385,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4375,7 +4438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -4384,7 +4447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -4393,7 +4456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -4404,7 +4467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -4413,7 +4476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4422,42 +4485,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4466,35 +4529,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E04E9D5-492B-D04E-A3D8-43CFEBDC6873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709BA63-2CF8-490C-B635-918FE7E673F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27980" yWindow="2980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27975" yWindow="2985" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -240,23 +240,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +269,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -312,11 +312,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -333,32 +333,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,26 +643,26 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V40" sqref="V40"/>
+      <selection pane="bottomRight" activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
@@ -735,7 +739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -804,7 +808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>46044</v>
       </c>
@@ -881,7 +885,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>46045</v>
       </c>
@@ -958,7 +962,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>46045</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>46045</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>46048</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>46048</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>46048</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>46049</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>46049</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>46049</v>
       </c>
@@ -1574,7 +1578,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>46050</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>46050</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>46050</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>46051</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>46051</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>46051</v>
       </c>
@@ -2036,7 +2040,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>46052</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>46052</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>46052</v>
       </c>
@@ -2267,7 +2271,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>46055</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>46055</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>46055</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>46056</v>
       </c>
@@ -2575,7 +2579,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>46056</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>46056</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>46057</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>46057</v>
       </c>
@@ -2883,7 +2887,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>46057</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>46058</v>
       </c>
@@ -3037,7 +3041,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>46058</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>46058</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>46059</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>46059</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>46059</v>
       </c>
@@ -3420,6 +3424,237 @@
       </c>
       <c r="Y36" s="11">
         <v>5.4950000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>46062</v>
+      </c>
+      <c r="B37" s="12">
+        <v>46062</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="11">
+        <v>53</v>
+      </c>
+      <c r="F37" s="11">
+        <v>25</v>
+      </c>
+      <c r="G37" s="11">
+        <v>37.832999999999998</v>
+      </c>
+      <c r="H37" s="11">
+        <v>21</v>
+      </c>
+      <c r="I37" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J37" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K37" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L37" s="11">
+        <v>25</v>
+      </c>
+      <c r="M37" s="11">
+        <v>76.847999999999999</v>
+      </c>
+      <c r="N37" s="11">
+        <v>14</v>
+      </c>
+      <c r="O37" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P37" s="11">
+        <v>13.125</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>46.5</v>
+      </c>
+      <c r="R37" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S37" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T37" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U37" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V37" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W37" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X37" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>5.5069999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>46062</v>
+      </c>
+      <c r="B38" s="12">
+        <v>46062</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="11">
+        <v>53</v>
+      </c>
+      <c r="F38" s="11">
+        <v>25</v>
+      </c>
+      <c r="G38" s="11">
+        <v>37.832999999999998</v>
+      </c>
+      <c r="H38" s="11">
+        <v>21</v>
+      </c>
+      <c r="I38" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J38" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K38" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L38" s="11">
+        <v>25</v>
+      </c>
+      <c r="M38" s="11">
+        <v>76.847999999999999</v>
+      </c>
+      <c r="N38" s="11">
+        <v>14</v>
+      </c>
+      <c r="O38" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P38" s="11">
+        <v>13.175000000000001</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>46.5</v>
+      </c>
+      <c r="R38" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S38" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T38" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U38" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V38" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W38" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X38" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y38" s="11">
+        <v>5.5069999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>46062</v>
+      </c>
+      <c r="B39" s="12">
+        <v>46062</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="11">
+        <v>53</v>
+      </c>
+      <c r="F39" s="11">
+        <v>25</v>
+      </c>
+      <c r="G39" s="11">
+        <v>37.832999999999998</v>
+      </c>
+      <c r="H39" s="11">
+        <v>21</v>
+      </c>
+      <c r="I39" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J39" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K39" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L39" s="11">
+        <v>25</v>
+      </c>
+      <c r="M39" s="11">
+        <v>76.847999999999999</v>
+      </c>
+      <c r="N39" s="11">
+        <v>14</v>
+      </c>
+      <c r="O39" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P39" s="11">
+        <v>13.175000000000001</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>46.5</v>
+      </c>
+      <c r="R39" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S39" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="T39" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U39" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V39" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W39" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X39" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>5.5069999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3446,17 +3681,17 @@
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1">
+    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3545,7 +3780,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -3626,7 +3861,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -3715,7 +3950,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45992</v>
       </c>
@@ -3804,7 +4039,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -3828,22 +4063,26 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="11"/>
-    <col min="8" max="8" width="10.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="25" width="9" style="11"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="9" style="11"/>
+    <col min="8" max="8" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="17"/>
+    <col min="10" max="10" width="9" style="11"/>
+    <col min="11" max="12" width="9" style="17"/>
+    <col min="13" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -3856,28 +4095,28 @@
       <c r="D1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -3896,33 +4135,33 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -3941,7 +4180,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -3954,28 +4193,28 @@
       <c r="D3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="16">
         <v>230</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="16">
         <v>160</v>
       </c>
       <c r="G3" s="10">
         <v>177.5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="16">
         <v>630</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="16">
         <v>490</v>
       </c>
       <c r="J3" s="10">
         <v>545</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="16">
         <v>130</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="16">
         <v>85</v>
       </c>
       <c r="M3" s="10">
@@ -3994,7 +4233,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -4007,28 +4246,28 @@
       <c r="D4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="16">
         <v>280</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="16">
         <v>230</v>
       </c>
       <c r="G4" s="10">
         <v>250</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="16">
         <v>1000</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="16">
         <v>700</v>
       </c>
       <c r="J4" s="10">
         <v>850</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="16">
         <v>145</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="16">
         <v>95</v>
       </c>
       <c r="M4" s="10">
@@ -4047,9 +4286,46 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="17">
+        <v>280</v>
+      </c>
+      <c r="F5" s="17">
+        <v>235</v>
+      </c>
+      <c r="G5" s="11">
+        <v>250</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="17">
+        <v>750</v>
+      </c>
+      <c r="J5" s="11">
+        <v>870</v>
+      </c>
+      <c r="K5" s="17">
+        <v>145</v>
+      </c>
+      <c r="L5" s="17">
+        <v>100</v>
+      </c>
+      <c r="M5" s="11">
+        <v>118.333</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4067,25 +4343,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C550C51-95E6-4243-AC05-025707E45857}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -4132,7 +4408,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -4171,7 +4447,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -4218,7 +4494,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -4265,9 +4541,37 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="11">
+        <v>9.4090000000000007</v>
+      </c>
+      <c r="H5" s="11">
+        <v>16</v>
+      </c>
+      <c r="I5" s="11">
+        <v>8</v>
+      </c>
+      <c r="J5" s="11">
+        <v>9.6539999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4289,15 +4593,15 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -4308,7 +4612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -4322,7 +4626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -4331,7 +4635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -4340,7 +4644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -4349,7 +4653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -4358,7 +4662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -4367,7 +4671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -4376,7 +4680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -4385,49 +4689,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -4438,7 +4742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -4447,7 +4751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -4456,7 +4760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -4467,7 +4771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -4476,7 +4780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4485,42 +4789,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4529,35 +4833,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709BA63-2CF8-490C-B635-918FE7E673F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E4735-238E-4C0B-8712-40EF73FA1B9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27975" yWindow="2985" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27975" yWindow="2985" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -346,6 +346,10 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,10 +359,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -643,13 +643,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z35" sqref="Z35"/>
+      <selection pane="bottomRight" activeCell="Z42" sqref="Z42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -663,16 +663,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -740,10 +740,10 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
         <v>54</v>
       </c>
@@ -3654,6 +3654,237 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Y39" s="11">
+        <v>5.5069999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>46063</v>
+      </c>
+      <c r="B40" s="12">
+        <v>46063</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="11">
+        <v>53</v>
+      </c>
+      <c r="F40" s="11">
+        <v>25</v>
+      </c>
+      <c r="G40" s="11">
+        <v>37.832999999999998</v>
+      </c>
+      <c r="H40" s="11">
+        <v>21</v>
+      </c>
+      <c r="I40" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J40" s="11">
+        <v>19.7</v>
+      </c>
+      <c r="K40" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L40" s="11">
+        <v>25</v>
+      </c>
+      <c r="M40" s="11">
+        <v>76.73</v>
+      </c>
+      <c r="N40" s="11">
+        <v>14</v>
+      </c>
+      <c r="O40" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P40" s="11">
+        <v>13.175000000000001</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>46.5</v>
+      </c>
+      <c r="R40" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S40" s="11">
+        <v>31.1</v>
+      </c>
+      <c r="T40" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U40" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V40" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W40" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X40" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>5.5069999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>46063</v>
+      </c>
+      <c r="B41" s="12">
+        <v>46063</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="11">
+        <v>53</v>
+      </c>
+      <c r="F41" s="11">
+        <v>25</v>
+      </c>
+      <c r="G41" s="11">
+        <v>38</v>
+      </c>
+      <c r="H41" s="11">
+        <v>21</v>
+      </c>
+      <c r="I41" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J41" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="K41" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L41" s="11">
+        <v>25</v>
+      </c>
+      <c r="M41" s="11">
+        <v>76.965999999999994</v>
+      </c>
+      <c r="N41" s="11">
+        <v>14</v>
+      </c>
+      <c r="O41" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P41" s="11">
+        <v>13.175000000000001</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>46</v>
+      </c>
+      <c r="R41" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S41" s="11">
+        <v>31.1</v>
+      </c>
+      <c r="T41" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U41" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V41" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W41" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X41" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>5.5069999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>46063</v>
+      </c>
+      <c r="B42" s="12">
+        <v>46063</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="11">
+        <v>53</v>
+      </c>
+      <c r="F42" s="11">
+        <v>25</v>
+      </c>
+      <c r="G42" s="11">
+        <v>38</v>
+      </c>
+      <c r="H42" s="11">
+        <v>21</v>
+      </c>
+      <c r="I42" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J42" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="K42" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L42" s="11">
+        <v>25</v>
+      </c>
+      <c r="M42" s="11">
+        <v>76.965999999999994</v>
+      </c>
+      <c r="N42" s="11">
+        <v>14</v>
+      </c>
+      <c r="O42" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P42" s="11">
+        <v>13.175000000000001</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>46</v>
+      </c>
+      <c r="R42" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S42" s="11">
+        <v>31.1</v>
+      </c>
+      <c r="T42" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U42" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V42" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W42" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X42" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y42" s="11">
         <v>5.5069999999999997</v>
       </c>
     </row>
@@ -3692,16 +3923,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -3781,10 +4012,10 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
         <v>54</v>
       </c>
@@ -4072,51 +4303,51 @@
     <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="17"/>
+    <col min="5" max="6" width="9" style="14"/>
     <col min="7" max="7" width="9" style="11"/>
-    <col min="8" max="8" width="10.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="17"/>
+    <col min="8" max="8" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="14"/>
     <col min="10" max="10" width="9" style="11"/>
-    <col min="11" max="12" width="9" style="17"/>
+    <col min="11" max="12" width="9" style="14"/>
     <col min="13" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -4136,32 +4367,32 @@
       <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -4193,28 +4424,28 @@
       <c r="D3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>230</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>160</v>
       </c>
       <c r="G3" s="10">
         <v>177.5</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <v>630</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13">
         <v>490</v>
       </c>
       <c r="J3" s="10">
         <v>545</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="13">
         <v>130</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="13">
         <v>85</v>
       </c>
       <c r="M3" s="10">
@@ -4246,28 +4477,28 @@
       <c r="D4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>280</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>230</v>
       </c>
       <c r="G4" s="10">
         <v>250</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>1000</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>700</v>
       </c>
       <c r="J4" s="10">
         <v>850</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="13">
         <v>145</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="13">
         <v>95</v>
       </c>
       <c r="M4" s="10">
@@ -4299,28 +4530,28 @@
       <c r="D5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>280</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>235</v>
       </c>
       <c r="G5" s="11">
         <v>250</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="14">
         <v>1000</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>750</v>
       </c>
       <c r="J5" s="11">
         <v>870</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="14">
         <v>145</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="14">
         <v>100</v>
       </c>
       <c r="M5" s="11">
@@ -4343,11 +4574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C550C51-95E6-4243-AC05-025707E45857}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4362,16 +4593,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -4409,10 +4640,10 @@
       <c r="Y1" s="9"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
         <v>54</v>
       </c>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E4735-238E-4C0B-8712-40EF73FA1B9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB893523-FBC9-4004-B39F-BE60C156552A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27975" yWindow="2985" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -643,13 +643,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z42" sqref="Z42"/>
+      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3886,6 +3886,237 @@
       </c>
       <c r="Y42" s="11">
         <v>5.5069999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>46064</v>
+      </c>
+      <c r="B43" s="12">
+        <v>46064</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="11">
+        <v>53</v>
+      </c>
+      <c r="F43" s="11">
+        <v>25</v>
+      </c>
+      <c r="G43" s="11">
+        <v>38.033000000000001</v>
+      </c>
+      <c r="H43" s="11">
+        <v>21</v>
+      </c>
+      <c r="I43" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J43" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="K43" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L43" s="11">
+        <v>25</v>
+      </c>
+      <c r="M43" s="11">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="N43" s="11">
+        <v>14</v>
+      </c>
+      <c r="O43" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P43" s="11">
+        <v>13.25</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>46</v>
+      </c>
+      <c r="R43" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S43" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="T43" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U43" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V43" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W43" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X43" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>5.5229999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>46064</v>
+      </c>
+      <c r="B44" s="12">
+        <v>46064</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="11">
+        <v>53</v>
+      </c>
+      <c r="F44" s="11">
+        <v>25</v>
+      </c>
+      <c r="G44" s="11">
+        <v>38.033000000000001</v>
+      </c>
+      <c r="H44" s="11">
+        <v>21</v>
+      </c>
+      <c r="I44" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="J44" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="K44" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L44" s="11">
+        <v>25</v>
+      </c>
+      <c r="M44" s="11">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="N44" s="11">
+        <v>14</v>
+      </c>
+      <c r="O44" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P44" s="11">
+        <v>13.25</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>46</v>
+      </c>
+      <c r="R44" s="11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S44" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="T44" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U44" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V44" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W44" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X44" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y44" s="11">
+        <v>5.5229999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>46064</v>
+      </c>
+      <c r="B45" s="12">
+        <v>46064</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="11">
+        <v>53</v>
+      </c>
+      <c r="F45" s="11">
+        <v>25</v>
+      </c>
+      <c r="G45" s="11">
+        <v>38.033000000000001</v>
+      </c>
+      <c r="H45" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I45" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J45" s="11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K45" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L45" s="11">
+        <v>25</v>
+      </c>
+      <c r="M45" s="11">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="N45" s="11">
+        <v>14</v>
+      </c>
+      <c r="O45" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P45" s="11">
+        <v>13.25</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>46</v>
+      </c>
+      <c r="R45" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S45" s="11">
+        <v>31.34</v>
+      </c>
+      <c r="T45" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U45" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V45" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W45" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X45" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y45" s="11">
+        <v>5.5229999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB893523-FBC9-4004-B39F-BE60C156552A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277FC3DE-95E9-4D70-873E-9A84D1257302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27975" yWindow="2985" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -643,13 +643,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomRight" activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4117,6 +4117,111 @@
       </c>
       <c r="Y45" s="11">
         <v>5.5229999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>46065</v>
+      </c>
+      <c r="B46" s="12">
+        <v>46065</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="11">
+        <v>53</v>
+      </c>
+      <c r="F46" s="11">
+        <v>25</v>
+      </c>
+      <c r="G46" s="11">
+        <v>38.033000000000001</v>
+      </c>
+      <c r="H46" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I46" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J46" s="11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K46" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L46" s="11">
+        <v>25</v>
+      </c>
+      <c r="M46" s="11">
+        <v>77.775000000000006</v>
+      </c>
+      <c r="N46" s="11">
+        <v>14</v>
+      </c>
+      <c r="O46" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P46" s="11">
+        <v>13.25</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>46</v>
+      </c>
+      <c r="R46" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S46" s="11">
+        <v>31.34</v>
+      </c>
+      <c r="T46" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U46" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V46" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W46" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X46" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y46" s="11">
+        <v>5.5449999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>46065</v>
+      </c>
+      <c r="B47" s="12">
+        <v>46065</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>46065</v>
+      </c>
+      <c r="B48" s="12">
+        <v>46065</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277FC3DE-95E9-4D70-873E-9A84D1257302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42A8CF-9D12-3B4A-8B5A-1A1F652E3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27975" yWindow="2985" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29200" yWindow="2080" windowWidth="20860" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -240,23 +240,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +269,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -312,7 +312,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -333,27 +333,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,8 +361,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,23 +646,23 @@
   <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W51" sqref="W51"/>
+      <selection pane="bottomRight" activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -739,7 +739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
@@ -808,7 +808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="12">
         <v>46044</v>
       </c>
@@ -885,7 +885,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="12">
         <v>46045</v>
       </c>
@@ -962,7 +962,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="12">
         <v>46045</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="12">
         <v>46045</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="12">
         <v>46048</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="12">
         <v>46048</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="12">
         <v>46048</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="12">
         <v>46049</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="12">
         <v>46049</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="12">
         <v>46049</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="12">
         <v>46050</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="12">
         <v>46050</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="12">
         <v>46050</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="12">
         <v>46051</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="12">
         <v>46051</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="12">
         <v>46051</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="12">
         <v>46052</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="12">
         <v>46052</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="12">
         <v>46052</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="12">
         <v>46055</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="12">
         <v>46055</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" s="12">
         <v>46055</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="12">
         <v>46056</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="12">
         <v>46056</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="12">
         <v>46056</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="12">
         <v>46057</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25">
       <c r="A29" s="12">
         <v>46057</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="12">
         <v>46057</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="12">
         <v>46058</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="12">
         <v>46058</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="12">
         <v>46058</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="12">
         <v>46059</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="12">
         <v>46059</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="A36" s="12">
         <v>46059</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25">
       <c r="A37" s="12">
         <v>46062</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25">
       <c r="A38" s="12">
         <v>46062</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25">
       <c r="A39" s="12">
         <v>46062</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25">
       <c r="A40" s="12">
         <v>46063</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="A41" s="12">
         <v>46063</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25">
       <c r="A42" s="12">
         <v>46063</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25">
       <c r="A43" s="12">
         <v>46064</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25">
       <c r="A44" s="12">
         <v>46064</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25">
       <c r="A45" s="12">
         <v>46064</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25">
       <c r="A46" s="12">
         <v>46065</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="12">
         <v>46065</v>
       </c>
@@ -4209,8 +4209,71 @@
       <c r="D47" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E47" s="11">
+        <v>53</v>
+      </c>
+      <c r="F47" s="11">
+        <v>25</v>
+      </c>
+      <c r="G47" s="11">
+        <v>38.033000000000001</v>
+      </c>
+      <c r="H47" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I47" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J47" s="11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K47" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L47" s="11">
+        <v>25</v>
+      </c>
+      <c r="M47" s="11">
+        <v>77.775000000000006</v>
+      </c>
+      <c r="N47" s="11">
+        <v>14</v>
+      </c>
+      <c r="O47" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P47" s="11">
+        <v>13.313000000000001</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>46</v>
+      </c>
+      <c r="R47" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S47" s="11">
+        <v>31.34</v>
+      </c>
+      <c r="T47" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U47" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V47" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W47" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X47" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>5.5449999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="12">
         <v>46065</v>
       </c>
@@ -4222,6 +4285,69 @@
       </c>
       <c r="D48" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E48" s="11">
+        <v>53</v>
+      </c>
+      <c r="F48" s="11">
+        <v>25</v>
+      </c>
+      <c r="G48" s="11">
+        <v>38.033000000000001</v>
+      </c>
+      <c r="H48" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I48" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J48" s="11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K48" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L48" s="11">
+        <v>25</v>
+      </c>
+      <c r="M48" s="11">
+        <v>77.775000000000006</v>
+      </c>
+      <c r="N48" s="11">
+        <v>14</v>
+      </c>
+      <c r="O48" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P48" s="11">
+        <v>13.313000000000001</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>46</v>
+      </c>
+      <c r="R48" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S48" s="11">
+        <v>31.34</v>
+      </c>
+      <c r="T48" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U48" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V48" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W48" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X48" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y48" s="11">
+        <v>5.5449999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4248,17 +4374,17 @@
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="5" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -4347,7 +4473,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -4428,7 +4554,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -4517,7 +4643,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="6">
         <v>45992</v>
       </c>
@@ -4606,7 +4732,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -4633,12 +4759,12 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="14"/>
     <col min="7" max="7" width="9" style="11"/>
     <col min="8" max="8" width="10.5" style="14" bestFit="1" customWidth="1"/>
@@ -4649,7 +4775,7 @@
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -4702,7 +4828,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -4747,7 +4873,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -4800,7 +4926,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -4853,7 +4979,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6">
         <v>46055</v>
       </c>
@@ -4917,18 +5043,18 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -4975,7 +5101,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -5014,7 +5140,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -5061,7 +5187,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -5108,7 +5234,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6">
         <v>46055</v>
       </c>
@@ -5160,15 +5286,15 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -5179,7 +5305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -5193,7 +5319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -5202,7 +5328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -5211,7 +5337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -5220,7 +5346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -5229,7 +5355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -5238,7 +5364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -5247,7 +5373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -5256,49 +5382,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -5309,7 +5435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -5318,7 +5444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -5327,7 +5453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -5338,7 +5464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -5347,7 +5473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -5356,42 +5482,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -5400,35 +5526,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42A8CF-9D12-3B4A-8B5A-1A1F652E3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C263EFA0-D165-4E18-937A-A024AB5B5FE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29200" yWindow="2080" windowWidth="20860" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29205" yWindow="2085" windowWidth="20865" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -240,23 +240,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +269,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -312,7 +312,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -333,27 +333,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,8 +361,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,26 +643,26 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z48" sqref="Z48"/>
+      <selection pane="bottomRight" activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -739,7 +739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
@@ -808,7 +808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>46044</v>
       </c>
@@ -885,7 +885,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>46045</v>
       </c>
@@ -962,7 +962,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>46045</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>46045</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>46048</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>46048</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>46048</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>46049</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>46049</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>46049</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>46050</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>46050</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>46050</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>46051</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>46051</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>46051</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>46052</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>46052</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>46052</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>46055</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>46055</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>46055</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>46056</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>46056</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>46056</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>46057</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>46057</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>46057</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>46058</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>46058</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>46058</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>46059</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>46059</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>46059</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>46062</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>46062</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>46062</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>46063</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>46063</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>46063</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>46064</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>46064</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>46064</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>46065</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>46065</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>46065</v>
       </c>
@@ -4348,6 +4348,111 @@
       </c>
       <c r="Y48" s="11">
         <v>5.5449999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>46066</v>
+      </c>
+      <c r="B49" s="12">
+        <v>46066</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="11">
+        <v>53</v>
+      </c>
+      <c r="F49" s="11">
+        <v>25</v>
+      </c>
+      <c r="G49" s="11">
+        <v>38.067</v>
+      </c>
+      <c r="H49" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I49" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J49" s="11">
+        <v>20</v>
+      </c>
+      <c r="K49" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L49" s="11">
+        <v>25</v>
+      </c>
+      <c r="M49" s="11">
+        <v>77.909000000000006</v>
+      </c>
+      <c r="N49" s="11">
+        <v>14</v>
+      </c>
+      <c r="O49" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P49" s="11">
+        <v>13.313000000000001</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>46</v>
+      </c>
+      <c r="R49" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S49" s="11">
+        <v>31.34</v>
+      </c>
+      <c r="T49" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U49" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V49" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W49" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X49" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>5.5449999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>46066</v>
+      </c>
+      <c r="B50" s="12">
+        <v>46066</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>46066</v>
+      </c>
+      <c r="B51" s="12">
+        <v>46066</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4374,17 +4479,17 @@
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1">
+    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -4473,7 +4578,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -4554,7 +4659,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -4643,7 +4748,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45992</v>
       </c>
@@ -4732,7 +4837,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -4759,12 +4864,12 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="14"/>
     <col min="7" max="7" width="9" style="11"/>
     <col min="8" max="8" width="10.5" style="14" bestFit="1" customWidth="1"/>
@@ -4775,7 +4880,7 @@
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -4828,7 +4933,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -4873,7 +4978,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -4926,7 +5031,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -4979,7 +5084,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>46055</v>
       </c>
@@ -5043,18 +5148,18 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -5101,7 +5206,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -5140,7 +5245,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -5187,7 +5292,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -5234,7 +5339,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>46055</v>
       </c>
@@ -5286,15 +5391,15 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -5305,7 +5410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -5319,7 +5424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -5328,7 +5433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -5337,7 +5442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -5346,7 +5451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -5355,7 +5460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -5364,7 +5469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -5373,7 +5478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -5382,49 +5487,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -5435,7 +5540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -5444,7 +5549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -5453,7 +5558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -5464,7 +5569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -5473,7 +5578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -5482,42 +5587,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -5526,35 +5631,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C263EFA0-D165-4E18-937A-A024AB5B5FE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E65135-C5EB-4561-8984-047758AA4A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29205" yWindow="2085" windowWidth="20865" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,10 +646,10 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z49" sqref="Z49"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4439,6 +4439,69 @@
       </c>
       <c r="D50" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E50" s="11">
+        <v>53</v>
+      </c>
+      <c r="F50" s="11">
+        <v>25</v>
+      </c>
+      <c r="G50" s="11">
+        <v>38.067</v>
+      </c>
+      <c r="H50" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I50" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J50" s="11">
+        <v>20</v>
+      </c>
+      <c r="K50" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L50" s="11">
+        <v>25</v>
+      </c>
+      <c r="M50" s="11">
+        <v>77.909000000000006</v>
+      </c>
+      <c r="N50" s="11">
+        <v>14</v>
+      </c>
+      <c r="O50" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P50" s="11">
+        <v>13.313000000000001</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>46</v>
+      </c>
+      <c r="R50" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S50" s="11">
+        <v>31.4</v>
+      </c>
+      <c r="T50" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U50" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V50" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W50" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X50" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>5.5449999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -4861,7 +4924,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:D5"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E65135-C5EB-4561-8984-047758AA4A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF53515-9162-484D-99DA-091A778FD079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29205" yWindow="2085" windowWidth="20865" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,10 +646,10 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4516,6 +4516,69 @@
       </c>
       <c r="D51" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E51" s="11">
+        <v>53</v>
+      </c>
+      <c r="F51" s="11">
+        <v>25</v>
+      </c>
+      <c r="G51" s="11">
+        <v>38.067</v>
+      </c>
+      <c r="H51" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I51" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J51" s="11">
+        <v>20</v>
+      </c>
+      <c r="K51" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L51" s="11">
+        <v>25</v>
+      </c>
+      <c r="M51" s="11">
+        <v>78.409000000000006</v>
+      </c>
+      <c r="N51" s="11">
+        <v>14</v>
+      </c>
+      <c r="O51" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P51" s="11">
+        <v>13.324999999999999</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>46</v>
+      </c>
+      <c r="R51" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S51" s="11">
+        <v>31.4</v>
+      </c>
+      <c r="T51" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U51" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V51" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W51" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="X51" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y51" s="11">
+        <v>5.5449999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF53515-9162-484D-99DA-091A778FD079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B5E0B8-8DF6-45AC-94F2-9F6CFBB567D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29205" yWindow="2085" windowWidth="20865" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="58">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -233,6 +233,9 @@
   <si>
     <t>Average</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTC+8</t>
   </si>
 </sst>
 </file>
@@ -643,13 +646,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z51" sqref="Z51"/>
+      <selection pane="bottomRight" activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4579,6 +4582,405 @@
       </c>
       <c r="Y51" s="11">
         <v>5.5449999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>46076</v>
+      </c>
+      <c r="B52" s="12">
+        <v>46076</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="11">
+        <v>53</v>
+      </c>
+      <c r="F52" s="11">
+        <v>25</v>
+      </c>
+      <c r="G52" s="11">
+        <v>38.1</v>
+      </c>
+      <c r="H52" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I52" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J52" s="11">
+        <v>20</v>
+      </c>
+      <c r="K52" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L52" s="11">
+        <v>25</v>
+      </c>
+      <c r="M52" s="11">
+        <v>78.409000000000006</v>
+      </c>
+      <c r="N52" s="11">
+        <v>14</v>
+      </c>
+      <c r="O52" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P52" s="11">
+        <v>13.324999999999999</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>46</v>
+      </c>
+      <c r="R52" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S52" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="T52" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U52" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V52" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W52" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X52" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y52" s="11">
+        <v>5.5609999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>46076</v>
+      </c>
+      <c r="B53" s="12">
+        <v>46076</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="11">
+        <v>53</v>
+      </c>
+      <c r="F53" s="11">
+        <v>25</v>
+      </c>
+      <c r="G53" s="11">
+        <v>38.1</v>
+      </c>
+      <c r="H53" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I53" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J53" s="11">
+        <v>20</v>
+      </c>
+      <c r="K53" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L53" s="11">
+        <v>25</v>
+      </c>
+      <c r="M53" s="11">
+        <v>78.409000000000006</v>
+      </c>
+      <c r="N53" s="11">
+        <v>14</v>
+      </c>
+      <c r="O53" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P53" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>46</v>
+      </c>
+      <c r="R53" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S53" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="T53" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U53" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V53" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W53" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X53" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y53" s="11">
+        <v>5.5609999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>46076</v>
+      </c>
+      <c r="B54" s="12">
+        <v>46076</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="11">
+        <v>53</v>
+      </c>
+      <c r="F54" s="11">
+        <v>25</v>
+      </c>
+      <c r="G54" s="11">
+        <v>38.1</v>
+      </c>
+      <c r="H54" s="11">
+        <v>21.2</v>
+      </c>
+      <c r="I54" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="J54" s="11">
+        <v>20</v>
+      </c>
+      <c r="K54" s="11">
+        <v>91.5</v>
+      </c>
+      <c r="L54" s="11">
+        <v>25</v>
+      </c>
+      <c r="M54" s="11">
+        <v>78.409000000000006</v>
+      </c>
+      <c r="N54" s="11">
+        <v>14</v>
+      </c>
+      <c r="O54" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P54" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>46</v>
+      </c>
+      <c r="R54" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S54" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="T54" s="11">
+        <v>7.85</v>
+      </c>
+      <c r="U54" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="V54" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W54" s="11">
+        <v>5.85</v>
+      </c>
+      <c r="X54" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>5.5609999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>46077</v>
+      </c>
+      <c r="B55" s="12">
+        <v>46077</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="F55" s="11">
+        <v>25</v>
+      </c>
+      <c r="G55" s="11">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="H55" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="I55" s="11">
+        <v>19</v>
+      </c>
+      <c r="J55" s="11">
+        <v>20</v>
+      </c>
+      <c r="K55" s="11">
+        <v>92</v>
+      </c>
+      <c r="L55" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M55" s="11">
+        <v>78.635999999999996</v>
+      </c>
+      <c r="N55" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O55" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="P55" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>47</v>
+      </c>
+      <c r="R55" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S55" s="11">
+        <v>31.7</v>
+      </c>
+      <c r="T55" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="U55" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V55" s="11">
+        <v>6.6550000000000002</v>
+      </c>
+      <c r="W55" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X55" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y55" s="11">
+        <v>5.5730000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>46077</v>
+      </c>
+      <c r="B56" s="12">
+        <v>46077</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="F56" s="11">
+        <v>25</v>
+      </c>
+      <c r="G56" s="11">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="H56" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="I56" s="11">
+        <v>19</v>
+      </c>
+      <c r="J56" s="11">
+        <v>20</v>
+      </c>
+      <c r="K56" s="11">
+        <v>92</v>
+      </c>
+      <c r="L56" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M56" s="11">
+        <v>78.635999999999996</v>
+      </c>
+      <c r="N56" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O56" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="P56" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>48</v>
+      </c>
+      <c r="R56" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S56" s="11">
+        <v>31.9</v>
+      </c>
+      <c r="T56" s="11">
+        <v>8</v>
+      </c>
+      <c r="U56" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V56" s="11">
+        <v>6.6980000000000004</v>
+      </c>
+      <c r="W56" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X56" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y56" s="11">
+        <v>5.5730000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>46077</v>
+      </c>
+      <c r="B57" s="12">
+        <v>46077</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4981,13 +5383,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3556165B-22F0-4AF5-853E-ED25EB5C0B71}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5251,6 +5653,47 @@
         <v>118.333</v>
       </c>
     </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="14">
+        <v>259</v>
+      </c>
+      <c r="F6" s="14">
+        <v>230</v>
+      </c>
+      <c r="G6" s="11">
+        <v>245</v>
+      </c>
+      <c r="H6" s="14">
+        <v>970</v>
+      </c>
+      <c r="I6" s="14">
+        <v>800</v>
+      </c>
+      <c r="J6" s="11">
+        <v>885</v>
+      </c>
+      <c r="K6" s="14">
+        <v>148</v>
+      </c>
+      <c r="L6" s="14">
+        <v>105</v>
+      </c>
+      <c r="M6" s="11">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -5265,13 +5708,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C550C51-95E6-4243-AC05-025707E45857}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5495,6 +5938,38 @@
       </c>
       <c r="J5" s="11">
         <v>9.6539999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="F6" s="11">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11">
+        <v>9.6359999999999992</v>
+      </c>
+      <c r="H6" s="11">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J6" s="11">
+        <v>9.8650000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5514,7 +5989,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B5E0B8-8DF6-45AC-94F2-9F6CFBB567D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F3C49-885E-5141-924C-4934BBCEFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29205" yWindow="2085" windowWidth="20865" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="780" windowWidth="19320" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="58">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -243,23 +243,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -272,7 +272,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -315,7 +315,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -336,27 +336,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,8 +364,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,26 +646,26 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y57"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z56" sqref="Z56"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -742,7 +742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
@@ -811,7 +811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="12">
         <v>46044</v>
       </c>
@@ -888,7 +888,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="12">
         <v>46045</v>
       </c>
@@ -965,7 +965,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="12">
         <v>46045</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="12">
         <v>46045</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="12">
         <v>46048</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="12">
         <v>46048</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="12">
         <v>46048</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="12">
         <v>46049</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="12">
         <v>46049</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="12">
         <v>46049</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="12">
         <v>46050</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="12">
         <v>46050</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="12">
         <v>46050</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="12">
         <v>46051</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="12">
         <v>46051</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="12">
         <v>46051</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="12">
         <v>46052</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="12">
         <v>46052</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="12">
         <v>46052</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="12">
         <v>46055</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="12">
         <v>46055</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" s="12">
         <v>46055</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="12">
         <v>46056</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="12">
         <v>46056</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="A27" s="12">
         <v>46056</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="A28" s="12">
         <v>46057</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25">
       <c r="A29" s="12">
         <v>46057</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="12">
         <v>46057</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25">
       <c r="A31" s="12">
         <v>46058</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="12">
         <v>46058</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="12">
         <v>46058</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="12">
         <v>46059</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="12">
         <v>46059</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25">
       <c r="A36" s="12">
         <v>46059</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25">
       <c r="A37" s="12">
         <v>46062</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25">
       <c r="A38" s="12">
         <v>46062</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25">
       <c r="A39" s="12">
         <v>46062</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25">
       <c r="A40" s="12">
         <v>46063</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25">
       <c r="A41" s="12">
         <v>46063</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25">
       <c r="A42" s="12">
         <v>46063</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25">
       <c r="A43" s="12">
         <v>46064</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25">
       <c r="A44" s="12">
         <v>46064</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25">
       <c r="A45" s="12">
         <v>46064</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25">
       <c r="A46" s="12">
         <v>46065</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="12">
         <v>46065</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25">
       <c r="A48" s="12">
         <v>46065</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25">
       <c r="A49" s="12">
         <v>46066</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25">
       <c r="A50" s="12">
         <v>46066</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25">
       <c r="A51" s="12">
         <v>46066</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25">
       <c r="A52" s="12">
         <v>46076</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>5.5609999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25">
       <c r="A53" s="12">
         <v>46076</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>5.5609999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25">
       <c r="A54" s="12">
         <v>46076</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>5.5609999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25">
       <c r="A55" s="12">
         <v>46077</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>5.5730000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25">
       <c r="A56" s="12">
         <v>46077</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>5.5730000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25">
       <c r="A57" s="12">
         <v>46077</v>
       </c>
@@ -4980,6 +4980,111 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="F57" s="11">
+        <v>25</v>
+      </c>
+      <c r="G57" s="11">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="H57" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="I57" s="11">
+        <v>19</v>
+      </c>
+      <c r="J57" s="11">
+        <v>20</v>
+      </c>
+      <c r="K57" s="11">
+        <v>92</v>
+      </c>
+      <c r="L57" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M57" s="11">
+        <v>78.635999999999996</v>
+      </c>
+      <c r="N57" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O57" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="P57" s="11">
+        <v>13.4</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>48</v>
+      </c>
+      <c r="R57" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S57" s="11">
+        <v>31.9</v>
+      </c>
+      <c r="T57" s="11">
+        <v>8</v>
+      </c>
+      <c r="U57" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V57" s="11">
+        <v>6.7110000000000003</v>
+      </c>
+      <c r="W57" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X57" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y57" s="11">
+        <v>5.5730000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="12">
+        <v>46078</v>
+      </c>
+      <c r="B58" s="12">
+        <v>46078</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="12">
+        <v>46078</v>
+      </c>
+      <c r="B59" s="12">
+        <v>46078</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="12">
+        <v>46078</v>
+      </c>
+      <c r="B60" s="12">
+        <v>46078</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5007,17 +5112,17 @@
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="5" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -5106,7 +5211,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -5187,7 +5292,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -5276,7 +5381,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37">
       <c r="A4" s="6">
         <v>45992</v>
       </c>
@@ -5365,7 +5470,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -5392,12 +5497,12 @@
       <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="14"/>
     <col min="7" max="7" width="9" style="11"/>
     <col min="8" max="8" width="10.5" style="14" bestFit="1" customWidth="1"/>
@@ -5408,7 +5513,7 @@
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -5461,7 +5566,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -5506,7 +5611,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -5559,7 +5664,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -5612,7 +5717,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6">
         <v>46055</v>
       </c>
@@ -5653,7 +5758,7 @@
         <v>118.333</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="6">
         <v>46062</v>
       </c>
@@ -5717,18 +5822,18 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -5775,7 +5880,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -5814,7 +5919,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -5861,7 +5966,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -5908,7 +6013,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="6">
         <v>46055</v>
       </c>
@@ -5940,7 +6045,7 @@
         <v>9.6539999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="6">
         <v>46062</v>
       </c>
@@ -5992,15 +6097,15 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -6011,7 +6116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6025,7 +6130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -6034,7 +6139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -6043,7 +6148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -6052,7 +6157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -6061,7 +6166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -6070,7 +6175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -6079,7 +6184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -6088,49 +6193,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -6141,7 +6246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -6150,7 +6255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -6159,7 +6264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -6170,7 +6275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -6179,7 +6284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -6188,42 +6293,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -6232,35 +6337,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F3C49-885E-5141-924C-4934BBCEFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C84DF76-92B3-2744-B865-6C8825F3A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16680" yWindow="780" windowWidth="19320" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,10 +649,10 @@
   <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="P25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="Z59" sqref="Z59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -5059,6 +5059,69 @@
       <c r="D58" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="E58" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="F58" s="11">
+        <v>25</v>
+      </c>
+      <c r="G58" s="11">
+        <v>38.667000000000002</v>
+      </c>
+      <c r="H58" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="I58" s="11">
+        <v>19</v>
+      </c>
+      <c r="J58" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="K58" s="11">
+        <v>92</v>
+      </c>
+      <c r="L58" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M58" s="11">
+        <v>79.135999999999996</v>
+      </c>
+      <c r="N58" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O58" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="P58" s="11">
+        <v>13.525</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>48</v>
+      </c>
+      <c r="R58" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S58" s="11">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="T58" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U58" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V58" s="11">
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="W58" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X58" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y58" s="11">
+        <v>5.5730000000000004</v>
+      </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="12">
@@ -5072,6 +5135,69 @@
       </c>
       <c r="D59" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E59" s="11">
+        <v>54</v>
+      </c>
+      <c r="F59" s="11">
+        <v>25</v>
+      </c>
+      <c r="G59" s="11">
+        <v>38.667000000000002</v>
+      </c>
+      <c r="H59" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="I59" s="11">
+        <v>19</v>
+      </c>
+      <c r="J59" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="K59" s="11">
+        <v>92</v>
+      </c>
+      <c r="L59" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M59" s="11">
+        <v>79.135999999999996</v>
+      </c>
+      <c r="N59" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O59" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="P59" s="11">
+        <v>13.525</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>48</v>
+      </c>
+      <c r="R59" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S59" s="11">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="T59" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U59" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V59" s="11">
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="W59" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X59" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>5.5730000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:25">

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/industry/TrendForce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F3C49-885E-5141-924C-4934BBCEFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E7EDA-2851-474D-80BC-FC39F3CCB2C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="780" windowWidth="19320" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRAM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="58">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -243,23 +243,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -272,7 +272,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -315,7 +315,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -336,27 +336,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,8 +364,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,26 +646,26 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -742,7 +742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
@@ -811,7 +811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>46044</v>
       </c>
@@ -888,7 +888,7 @@
         <v>4.9450000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>46045</v>
       </c>
@@ -965,7 +965,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>46045</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>46045</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>46048</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>46048</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>46048</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>46049</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>46049</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>46049</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>46050</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>46050</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>46050</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>5.2089999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>46051</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>46051</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>46051</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5.3319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>46052</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>46052</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>46052</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>46055</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>46055</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>46055</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>46056</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>46056</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>46056</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>46057</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>46057</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>46057</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>46058</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>46058</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>46058</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>5.48</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>46059</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>46059</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>46059</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>46062</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>46062</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>46062</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>46063</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>46063</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>46063</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>5.5069999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>46064</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>46064</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>46064</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>5.5229999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>46065</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>46065</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>46065</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>46066</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>46066</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>46066</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>5.5449999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>46076</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>5.5609999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>46076</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>5.5609999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>46076</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>5.5609999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>46077</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>5.5730000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>46077</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>5.5730000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>46077</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>5.5730000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>46078</v>
       </c>
@@ -5059,8 +5059,71 @@
       <c r="D58" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="E58" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="F58" s="11">
+        <v>25</v>
+      </c>
+      <c r="G58" s="11">
+        <v>38.667000000000002</v>
+      </c>
+      <c r="H58" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="I58" s="11">
+        <v>19</v>
+      </c>
+      <c r="J58" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="K58" s="11">
+        <v>92</v>
+      </c>
+      <c r="L58" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M58" s="11">
+        <v>79.135999999999996</v>
+      </c>
+      <c r="N58" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O58" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="P58" s="11">
+        <v>13.525</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>48</v>
+      </c>
+      <c r="R58" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S58" s="11">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="T58" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U58" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V58" s="11">
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="W58" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X58" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y58" s="11">
+        <v>5.5730000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>46078</v>
       </c>
@@ -5073,8 +5136,71 @@
       <c r="D59" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="E59" s="11">
+        <v>54</v>
+      </c>
+      <c r="F59" s="11">
+        <v>25</v>
+      </c>
+      <c r="G59" s="11">
+        <v>38.667000000000002</v>
+      </c>
+      <c r="H59" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="I59" s="11">
+        <v>19</v>
+      </c>
+      <c r="J59" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="K59" s="11">
+        <v>92</v>
+      </c>
+      <c r="L59" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M59" s="11">
+        <v>79.135999999999996</v>
+      </c>
+      <c r="N59" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O59" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="P59" s="11">
+        <v>13.525</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>48</v>
+      </c>
+      <c r="R59" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S59" s="11">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="T59" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U59" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V59" s="11">
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="W59" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X59" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>5.5730000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>46078</v>
       </c>
@@ -5085,6 +5211,237 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D60" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="11">
+        <v>54</v>
+      </c>
+      <c r="F60" s="11">
+        <v>25</v>
+      </c>
+      <c r="G60" s="11">
+        <v>38.667000000000002</v>
+      </c>
+      <c r="H60" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="I60" s="11">
+        <v>19</v>
+      </c>
+      <c r="J60" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="K60" s="11">
+        <v>92</v>
+      </c>
+      <c r="L60" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M60" s="11">
+        <v>79.135999999999996</v>
+      </c>
+      <c r="N60" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O60" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="P60" s="11">
+        <v>13.525</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>48</v>
+      </c>
+      <c r="R60" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S60" s="11">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="T60" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U60" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V60" s="11">
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="W60" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X60" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>5.5730000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>46079</v>
+      </c>
+      <c r="B61" s="12">
+        <v>46079</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="11">
+        <v>55</v>
+      </c>
+      <c r="F61" s="11">
+        <v>25</v>
+      </c>
+      <c r="G61" s="11">
+        <v>39.332999999999998</v>
+      </c>
+      <c r="H61" s="11">
+        <v>22</v>
+      </c>
+      <c r="I61" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="J61" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="K61" s="11">
+        <v>92</v>
+      </c>
+      <c r="L61" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M61" s="11">
+        <v>79.364000000000004</v>
+      </c>
+      <c r="N61" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O61" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P61" s="11">
+        <v>13.625</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>48</v>
+      </c>
+      <c r="R61" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S61" s="11">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="T61" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U61" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V61" s="11">
+        <v>6.8929999999999998</v>
+      </c>
+      <c r="W61" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X61" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>5.5890000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
+        <v>46079</v>
+      </c>
+      <c r="B62" s="12">
+        <v>46079</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="11">
+        <v>55</v>
+      </c>
+      <c r="F62" s="11">
+        <v>25</v>
+      </c>
+      <c r="G62" s="11">
+        <v>39.332999999999998</v>
+      </c>
+      <c r="H62" s="11">
+        <v>22</v>
+      </c>
+      <c r="I62" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="J62" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="K62" s="11">
+        <v>92</v>
+      </c>
+      <c r="L62" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M62" s="11">
+        <v>79.364000000000004</v>
+      </c>
+      <c r="N62" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O62" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P62" s="11">
+        <v>13.625</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>48</v>
+      </c>
+      <c r="R62" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S62" s="11">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="T62" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U62" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V62" s="11">
+        <v>6.8929999999999998</v>
+      </c>
+      <c r="W62" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X62" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="Y62" s="11">
+        <v>5.5890000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
+        <v>46079</v>
+      </c>
+      <c r="B63" s="12">
+        <v>46079</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5112,17 +5469,17 @@
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1">
+    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -5211,7 +5568,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -5292,7 +5649,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45962</v>
       </c>
@@ -5381,7 +5738,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45992</v>
       </c>
@@ -5470,7 +5827,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
@@ -5497,12 +5854,12 @@
       <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="14"/>
     <col min="7" max="7" width="9" style="11"/>
     <col min="8" max="8" width="10.5" style="14" bestFit="1" customWidth="1"/>
@@ -5513,7 +5870,7 @@
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -5566,7 +5923,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -5611,7 +5968,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -5664,7 +6021,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -5717,7 +6074,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>46055</v>
       </c>
@@ -5758,7 +6115,7 @@
         <v>118.333</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>46062</v>
       </c>
@@ -5822,18 +6179,18 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="25" width="9" style="11"/>
     <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -5880,7 +6237,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -5919,7 +6276,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -5966,7 +6323,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46048</v>
       </c>
@@ -6013,7 +6370,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>46055</v>
       </c>
@@ -6045,7 +6402,7 @@
         <v>9.6539999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>46062</v>
       </c>
@@ -6097,15 +6454,15 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -6116,7 +6473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6130,7 +6487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>29</v>
@@ -6139,7 +6496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -6148,7 +6505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -6157,7 +6514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -6166,7 +6523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -6175,7 +6532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -6184,7 +6541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -6193,49 +6550,49 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -6246,7 +6603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -6255,7 +6612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -6264,7 +6621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -6275,7 +6632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -6284,7 +6641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -6293,42 +6650,42 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -6337,35 +6694,35 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>23</v>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E7EDA-2851-474D-80BC-FC39F3CCB2C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345BCA7D-7BC8-41A8-A4E0-22DA98E560EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="58">
   <si>
     <t>DDR5 8GB SO-DIMM</t>
   </si>
@@ -646,13 +646,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T58" sqref="T58"/>
+      <selection pane="bottomRight" activeCell="Z65" sqref="Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5442,6 +5442,237 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="11">
+        <v>55</v>
+      </c>
+      <c r="F63" s="11">
+        <v>25</v>
+      </c>
+      <c r="G63" s="11">
+        <v>39.332999999999998</v>
+      </c>
+      <c r="H63" s="11">
+        <v>22</v>
+      </c>
+      <c r="I63" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="J63" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="K63" s="11">
+        <v>92</v>
+      </c>
+      <c r="L63" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M63" s="11">
+        <v>79.364000000000004</v>
+      </c>
+      <c r="N63" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O63" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P63" s="11">
+        <v>13.675000000000001</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>48</v>
+      </c>
+      <c r="R63" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S63" s="11">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="T63" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U63" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V63" s="11">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="W63" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X63" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="Y63" s="11">
+        <v>5.5890000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
+        <v>46080</v>
+      </c>
+      <c r="B64" s="12">
+        <v>46080</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="11">
+        <v>55</v>
+      </c>
+      <c r="F64" s="11">
+        <v>25</v>
+      </c>
+      <c r="G64" s="11">
+        <v>39.5</v>
+      </c>
+      <c r="H64" s="11">
+        <v>22</v>
+      </c>
+      <c r="I64" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="J64" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="K64" s="11">
+        <v>92</v>
+      </c>
+      <c r="L64" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M64" s="11">
+        <v>79.635999999999996</v>
+      </c>
+      <c r="N64" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O64" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P64" s="11">
+        <v>13.675000000000001</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>48</v>
+      </c>
+      <c r="R64" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S64" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="T64" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U64" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V64" s="11">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="W64" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X64" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="Y64" s="11">
+        <v>5.5890000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
+        <v>46080</v>
+      </c>
+      <c r="B65" s="12">
+        <v>46080</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="11">
+        <v>55</v>
+      </c>
+      <c r="F65" s="11">
+        <v>25</v>
+      </c>
+      <c r="G65" s="11">
+        <v>39.5</v>
+      </c>
+      <c r="H65" s="11">
+        <v>22</v>
+      </c>
+      <c r="I65" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="J65" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="K65" s="11">
+        <v>92</v>
+      </c>
+      <c r="L65" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M65" s="11">
+        <v>79.635999999999996</v>
+      </c>
+      <c r="N65" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O65" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P65" s="11">
+        <v>13.675000000000001</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>48</v>
+      </c>
+      <c r="R65" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S65" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="T65" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U65" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V65" s="11">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="W65" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X65" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="Y65" s="11">
+        <v>5.5890000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
+        <v>46080</v>
+      </c>
+      <c r="B66" s="12">
+        <v>46080</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>53</v>
       </c>
     </row>

--- a/data/industry/TrendForce/DRAM.xlsx
+++ b/data/industry/TrendForce/DRAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345BCA7D-7BC8-41A8-A4E0-22DA98E560EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57880D57-2902-4D98-A84F-3434AF6B4908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,10 +649,10 @@
   <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z65" sqref="Z65"/>
+      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5674,6 +5674,69 @@
       </c>
       <c r="D66" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="E66" s="11">
+        <v>55</v>
+      </c>
+      <c r="F66" s="11">
+        <v>25</v>
+      </c>
+      <c r="G66" s="11">
+        <v>39.5</v>
+      </c>
+      <c r="H66" s="11">
+        <v>22</v>
+      </c>
+      <c r="I66" s="11">
+        <v>19.5</v>
+      </c>
+      <c r="J66" s="11">
+        <v>20.6</v>
+      </c>
+      <c r="K66" s="11">
+        <v>92</v>
+      </c>
+      <c r="L66" s="11">
+        <v>25.2</v>
+      </c>
+      <c r="M66" s="11">
+        <v>79.909000000000006</v>
+      </c>
+      <c r="N66" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="O66" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="P66" s="11">
+        <v>13.675000000000001</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>48</v>
+      </c>
+      <c r="R66" s="11">
+        <v>10.8</v>
+      </c>
+      <c r="S66" s="11">
+        <v>32.9</v>
+      </c>
+      <c r="T66" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="U66" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="V66" s="11">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="W66" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="X66" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>5.5890000000000004</v>
       </c>
     </row>
   </sheetData>
